--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -69,247 +72,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>97.474523704031895</v>
+        <v>97.16629381058911</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>99.025254762959676</v>
+        <v>99.030574198359432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>97.563136907399212</v>
+        <v>96.942580164056665</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>99.379707576428885</v>
+        <v>99.328859060402692</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>99.202481169694295</v>
+        <v>99.328859060402692</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>99.379707576428885</v>
+        <v>99.254287844891877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>98.404962339388575</v>
+        <v>98.434004474272925</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>97.252990695613647</v>
+        <v>96.196868008948542</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>97.6517501107665</v>
+        <v>97.390007457121555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>97.91758972086842</v>
+        <v>97.464578672632356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>97.164377492246345</v>
+        <v>96.644295302013433</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>97.563136907399212</v>
+        <v>97.31543624161074</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>99.113867966326978</v>
+        <v>99.105145413870247</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>97.341603898980949</v>
+        <v>97.613721103654001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>99.113867966326978</v>
+        <v>99.105145413870247</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>98.89233495790873</v>
+        <v>98.434004474272925</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>99.335400974745241</v>
+        <v>99.179716629381048</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>98.89233495790873</v>
+        <v>98.359433258762124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>99.202481169694295</v>
+        <v>99.179716629381048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>99.246787771377925</v>
+        <v>99.179716629381048</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>99.202481169694295</v>
+        <v>99.030574198359432</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>97.91758972086842</v>
+        <v>98.65771812080537</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>98.582188746123165</v>
+        <v>98.65771812080537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>98.626495347806824</v>
+        <v>98.359433258762124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>98.404962339388575</v>
+        <v>97.986577181208062</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>99.424014178112543</v>
+        <v>99.179716629381048</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>99.512627381479845</v>
+        <v>99.328859060402692</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>98.670801949490468</v>
+        <v>98.881431767337816</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>99.069561364643334</v>
+        <v>98.806860551826986</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>99.246787771377925</v>
+        <v>99.030574198359432</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>99.291094373061583</v>
+        <v>99.179716629381048</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>99.202481169694295</v>
+        <v>99.105145413870247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>99.468320779796187</v>
+        <v>99.328859060402692</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>98.715108551174126</v>
+        <v>98.434004474272925</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>98.582188746123165</v>
+        <v>98.359433258762124</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>98.050509525919367</v>
+        <v>98.210290827740494</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>98.89233495790873</v>
+        <v>98.434004474272925</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>98.493575542755877</v>
+        <v>98.583146905294555</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>98.936641559592374</v>
+        <v>98.65771812080537</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>99.158174568010637</v>
+        <v>98.881431767337816</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>99.424014178112543</v>
+        <v>99.254287844891877</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>99.379707576428885</v>
+        <v>99.105145413870247</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>99.113867966326978</v>
+        <v>99.030574198359432</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>98.980948161276032</v>
+        <v>98.806860551826986</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>99.069561364643334</v>
+        <v>98.956002982848617</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>98.360655737704917</v>
+        <v>98.434004474272925</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>97.696056712450158</v>
+        <v>96.718866517524233</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>99.424014178112543</v>
+        <v>99.179716629381048</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -72,247 +75,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>97.16629381058911</v>
+        <v>97.474523704031895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>99.030574198359432</v>
+        <v>99.025254762959676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>96.942580164056665</v>
+        <v>97.563136907399212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>99.328859060402692</v>
+        <v>99.379707576428885</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>99.328859060402692</v>
+        <v>99.202481169694295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>99.254287844891877</v>
+        <v>99.379707576428885</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>98.434004474272925</v>
+        <v>98.404962339388575</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>96.196868008948542</v>
+        <v>97.252990695613647</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>97.390007457121555</v>
+        <v>97.6517501107665</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>97.464578672632356</v>
+        <v>97.91758972086842</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>96.644295302013433</v>
+        <v>97.164377492246345</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>97.31543624161074</v>
+        <v>97.563136907399212</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>99.105145413870247</v>
+        <v>99.113867966326978</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>97.613721103654001</v>
+        <v>97.341603898980949</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>99.105145413870247</v>
+        <v>99.113867966326978</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>98.434004474272925</v>
+        <v>98.89233495790873</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>99.179716629381048</v>
+        <v>99.335400974745241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>98.359433258762124</v>
+        <v>98.89233495790873</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>99.179716629381048</v>
+        <v>99.202481169694295</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>99.179716629381048</v>
+        <v>99.246787771377925</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>99.030574198359432</v>
+        <v>99.202481169694295</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>98.65771812080537</v>
+        <v>97.91758972086842</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>98.65771812080537</v>
+        <v>98.582188746123165</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>98.359433258762124</v>
+        <v>98.626495347806824</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>97.986577181208062</v>
+        <v>98.404962339388575</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>99.179716629381048</v>
+        <v>99.424014178112543</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>99.328859060402692</v>
+        <v>99.512627381479845</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>98.881431767337816</v>
+        <v>98.670801949490468</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>98.806860551826986</v>
+        <v>99.069561364643334</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>99.030574198359432</v>
+        <v>99.246787771377925</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>99.179716629381048</v>
+        <v>99.291094373061583</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>99.105145413870247</v>
+        <v>99.202481169694295</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>99.328859060402692</v>
+        <v>99.468320779796187</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>98.434004474272925</v>
+        <v>98.715108551174126</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>98.359433258762124</v>
+        <v>98.582188746123165</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>98.210290827740494</v>
+        <v>98.050509525919367</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>98.434004474272925</v>
+        <v>98.89233495790873</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>98.583146905294555</v>
+        <v>98.493575542755877</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>98.65771812080537</v>
+        <v>98.936641559592374</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>98.881431767337816</v>
+        <v>99.158174568010637</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>99.254287844891877</v>
+        <v>99.424014178112543</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>99.105145413870247</v>
+        <v>99.379707576428885</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>99.030574198359432</v>
+        <v>99.113867966326978</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>98.806860551826986</v>
+        <v>98.980948161276032</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>98.956002982848617</v>
+        <v>99.069561364643334</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>98.434004474272925</v>
+        <v>98.360655737704917</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>96.718866517524233</v>
+        <v>97.696056712450158</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>99.179716629381048</v>
+        <v>99.424014178112543</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -75,7 +81,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -81,247 +84,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>97.474523704031895</v>
+        <v>97.16629381058911</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>99.025254762959676</v>
+        <v>99.030574198359432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>97.563136907399212</v>
+        <v>96.942580164056665</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>99.379707576428885</v>
+        <v>99.328859060402692</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>99.202481169694295</v>
+        <v>99.328859060402692</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>99.379707576428885</v>
+        <v>99.254287844891877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>98.404962339388575</v>
+        <v>98.434004474272925</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>97.252990695613647</v>
+        <v>96.196868008948542</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>97.6517501107665</v>
+        <v>97.390007457121555</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>97.91758972086842</v>
+        <v>97.464578672632356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>97.164377492246345</v>
+        <v>96.644295302013433</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>97.563136907399212</v>
+        <v>97.31543624161074</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>99.113867966326978</v>
+        <v>99.105145413870247</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>97.341603898980949</v>
+        <v>97.613721103654001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>99.113867966326978</v>
+        <v>99.105145413870247</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>98.89233495790873</v>
+        <v>98.434004474272925</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>99.335400974745241</v>
+        <v>99.179716629381048</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>98.89233495790873</v>
+        <v>98.359433258762124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>99.202481169694295</v>
+        <v>99.179716629381048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>99.246787771377925</v>
+        <v>99.179716629381048</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>99.202481169694295</v>
+        <v>99.030574198359432</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>97.91758972086842</v>
+        <v>98.65771812080537</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>98.582188746123165</v>
+        <v>98.65771812080537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>98.626495347806824</v>
+        <v>98.359433258762124</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>98.404962339388575</v>
+        <v>97.986577181208062</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>99.424014178112543</v>
+        <v>99.179716629381048</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>99.512627381479845</v>
+        <v>99.328859060402692</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>98.670801949490468</v>
+        <v>98.881431767337816</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>99.069561364643334</v>
+        <v>98.806860551826986</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>99.246787771377925</v>
+        <v>99.030574198359432</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>99.291094373061583</v>
+        <v>99.179716629381048</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>99.202481169694295</v>
+        <v>99.105145413870247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>99.468320779796187</v>
+        <v>99.328859060402692</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>98.715108551174126</v>
+        <v>98.434004474272925</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>98.582188746123165</v>
+        <v>98.359433258762124</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>98.050509525919367</v>
+        <v>98.210290827740494</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>98.89233495790873</v>
+        <v>98.434004474272925</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>98.493575542755877</v>
+        <v>98.583146905294555</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>98.936641559592374</v>
+        <v>98.65771812080537</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>99.158174568010637</v>
+        <v>98.881431767337816</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>99.424014178112543</v>
+        <v>99.254287844891877</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>99.379707576428885</v>
+        <v>99.105145413870247</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>99.113867966326978</v>
+        <v>99.030574198359432</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>98.980948161276032</v>
+        <v>98.806860551826986</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>99.069561364643334</v>
+        <v>98.956002982848617</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>98.360655737704917</v>
+        <v>98.434004474272925</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>97.696056712450158</v>
+        <v>96.718866517524233</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>99.424014178112543</v>
+        <v>99.179716629381048</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -84,7 +87,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -87,7 +90,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -90,248 +93,152 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
-        <v>97.16629381058911</v>
-      </c>
+      <c r="A2" s="0"/>
     </row>
     <row r="3">
-      <c r="A3" s="0">
-        <v>99.030574198359432</v>
-      </c>
+      <c r="A3" s="0"/>
     </row>
     <row r="4">
-      <c r="A4" s="0">
-        <v>96.942580164056665</v>
-      </c>
+      <c r="A4" s="0"/>
     </row>
     <row r="5">
-      <c r="A5" s="0">
-        <v>99.328859060402692</v>
-      </c>
+      <c r="A5" s="0"/>
     </row>
     <row r="6">
-      <c r="A6" s="0">
-        <v>99.328859060402692</v>
-      </c>
+      <c r="A6" s="0"/>
     </row>
     <row r="7">
-      <c r="A7" s="0">
-        <v>99.254287844891877</v>
-      </c>
+      <c r="A7" s="0"/>
     </row>
     <row r="8">
-      <c r="A8" s="0">
-        <v>98.434004474272925</v>
-      </c>
+      <c r="A8" s="0"/>
     </row>
     <row r="9">
-      <c r="A9" s="0">
-        <v>96.196868008948542</v>
-      </c>
+      <c r="A9" s="0"/>
     </row>
     <row r="10">
-      <c r="A10" s="0">
-        <v>97.390007457121555</v>
-      </c>
+      <c r="A10" s="0"/>
     </row>
     <row r="11">
-      <c r="A11" s="0">
-        <v>97.464578672632356</v>
-      </c>
+      <c r="A11" s="0"/>
     </row>
     <row r="12">
-      <c r="A12" s="0">
-        <v>96.644295302013433</v>
-      </c>
+      <c r="A12" s="0"/>
     </row>
     <row r="13">
-      <c r="A13" s="0">
-        <v>97.31543624161074</v>
-      </c>
+      <c r="A13" s="0"/>
     </row>
     <row r="14">
-      <c r="A14" s="0">
-        <v>99.105145413870247</v>
-      </c>
+      <c r="A14" s="0"/>
     </row>
     <row r="15">
-      <c r="A15" s="0">
-        <v>97.613721103654001</v>
-      </c>
+      <c r="A15" s="0"/>
     </row>
     <row r="16">
-      <c r="A16" s="0">
-        <v>99.105145413870247</v>
-      </c>
+      <c r="A16" s="0"/>
     </row>
     <row r="17">
-      <c r="A17" s="0">
-        <v>98.434004474272925</v>
-      </c>
+      <c r="A17" s="0"/>
     </row>
     <row r="18">
-      <c r="A18" s="0">
-        <v>99.179716629381048</v>
-      </c>
+      <c r="A18" s="0"/>
     </row>
     <row r="19">
-      <c r="A19" s="0">
-        <v>98.359433258762124</v>
-      </c>
+      <c r="A19" s="0"/>
     </row>
     <row r="20">
-      <c r="A20" s="0">
-        <v>99.179716629381048</v>
-      </c>
+      <c r="A20" s="0"/>
     </row>
     <row r="21">
-      <c r="A21" s="0">
-        <v>99.179716629381048</v>
-      </c>
+      <c r="A21" s="0"/>
     </row>
     <row r="22">
-      <c r="A22" s="0">
-        <v>99.030574198359432</v>
-      </c>
+      <c r="A22" s="0"/>
     </row>
     <row r="23">
-      <c r="A23" s="0">
-        <v>98.65771812080537</v>
-      </c>
+      <c r="A23" s="0"/>
     </row>
     <row r="24">
-      <c r="A24" s="0">
-        <v>98.65771812080537</v>
-      </c>
+      <c r="A24" s="0"/>
     </row>
     <row r="25">
-      <c r="A25" s="0">
-        <v>98.359433258762124</v>
-      </c>
+      <c r="A25" s="0"/>
     </row>
     <row r="26">
-      <c r="A26" s="0">
-        <v>97.986577181208062</v>
-      </c>
+      <c r="A26" s="0"/>
     </row>
     <row r="27">
-      <c r="A27" s="0">
-        <v>99.179716629381048</v>
-      </c>
+      <c r="A27" s="0"/>
     </row>
     <row r="28">
-      <c r="A28" s="0">
-        <v>99.328859060402692</v>
-      </c>
+      <c r="A28" s="0"/>
     </row>
     <row r="29">
-      <c r="A29" s="0">
-        <v>98.881431767337816</v>
-      </c>
+      <c r="A29" s="0"/>
     </row>
     <row r="30">
-      <c r="A30" s="0">
-        <v>98.806860551826986</v>
-      </c>
+      <c r="A30" s="0"/>
     </row>
     <row r="31">
-      <c r="A31" s="0">
-        <v>99.030574198359432</v>
-      </c>
+      <c r="A31" s="0"/>
     </row>
     <row r="32">
-      <c r="A32" s="0">
-        <v>99.179716629381048</v>
-      </c>
+      <c r="A32" s="0"/>
     </row>
     <row r="33">
-      <c r="A33" s="0">
-        <v>99.105145413870247</v>
-      </c>
+      <c r="A33" s="0"/>
     </row>
     <row r="34">
-      <c r="A34" s="0">
-        <v>99.328859060402692</v>
-      </c>
+      <c r="A34" s="0"/>
     </row>
     <row r="35">
-      <c r="A35" s="0">
-        <v>98.434004474272925</v>
-      </c>
+      <c r="A35" s="0"/>
     </row>
     <row r="36">
-      <c r="A36" s="0">
-        <v>98.359433258762124</v>
-      </c>
+      <c r="A36" s="0"/>
     </row>
     <row r="37">
-      <c r="A37" s="0">
-        <v>98.210290827740494</v>
-      </c>
+      <c r="A37" s="0"/>
     </row>
     <row r="38">
-      <c r="A38" s="0">
-        <v>98.434004474272925</v>
-      </c>
+      <c r="A38" s="0"/>
     </row>
     <row r="39">
-      <c r="A39" s="0">
-        <v>98.583146905294555</v>
-      </c>
+      <c r="A39" s="0"/>
     </row>
     <row r="40">
-      <c r="A40" s="0">
-        <v>98.65771812080537</v>
-      </c>
+      <c r="A40" s="0"/>
     </row>
     <row r="41">
-      <c r="A41" s="0">
-        <v>98.881431767337816</v>
-      </c>
+      <c r="A41" s="0"/>
     </row>
     <row r="42">
-      <c r="A42" s="0">
-        <v>99.254287844891877</v>
-      </c>
+      <c r="A42" s="0"/>
     </row>
     <row r="43">
-      <c r="A43" s="0">
-        <v>99.105145413870247</v>
-      </c>
+      <c r="A43" s="0"/>
     </row>
     <row r="44">
-      <c r="A44" s="0">
-        <v>99.030574198359432</v>
-      </c>
+      <c r="A44" s="0"/>
     </row>
     <row r="45">
-      <c r="A45" s="0">
-        <v>98.806860551826986</v>
-      </c>
+      <c r="A45" s="0"/>
     </row>
     <row r="46">
-      <c r="A46" s="0">
-        <v>98.956002982848617</v>
-      </c>
+      <c r="A46" s="0"/>
     </row>
     <row r="47">
-      <c r="A47" s="0">
-        <v>98.434004474272925</v>
-      </c>
+      <c r="A47" s="0"/>
     </row>
     <row r="48">
-      <c r="A48" s="0">
-        <v>96.718866517524233</v>
-      </c>
+      <c r="A48" s="0"/>
     </row>
     <row r="49">
-      <c r="A49" s="0">
-        <v>99.179716629381048</v>
-      </c>
+      <c r="A49" s="0"/>
     </row>
   </sheetData>
 </worksheet>

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -93,152 +96,248 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0"/>
+      <c r="A2" s="0">
+        <v>86.36363636363636</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="0"/>
+      <c r="A3" s="0">
+        <v>87.991858887381284</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="0"/>
+      <c r="A4" s="0">
+        <v>86.160108548168239</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="0"/>
+      <c r="A5" s="0">
+        <v>88.331071913161466</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="0"/>
+      <c r="A6" s="0">
+        <v>88.331071913161466</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
+      <c r="A7" s="0">
+        <v>88.263229308005435</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0"/>
+      <c r="A8" s="0">
+        <v>87.516960651289011</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="0"/>
+      <c r="A9" s="0">
+        <v>85.549525101763919</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="0"/>
+      <c r="A10" s="0">
+        <v>86.567164179104466</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
+      <c r="A11" s="0">
+        <v>86.635006784260511</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="0"/>
+      <c r="A12" s="0">
+        <v>86.092265943012208</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
+      <c r="A13" s="0">
+        <v>86.499321573948436</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
+      <c r="A14" s="0">
+        <v>88.12754409769336</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
+      <c r="A15" s="0">
+        <v>86.770691994572587</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="0"/>
+      <c r="A16" s="0">
+        <v>88.12754409769336</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
+      <c r="A17" s="0">
+        <v>87.516960651289011</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="0"/>
+      <c r="A18" s="0">
+        <v>88.19538670284939</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="0"/>
+      <c r="A19" s="0">
+        <v>87.449118046132966</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="0"/>
+      <c r="A20" s="0">
+        <v>88.19538670284939</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="0"/>
+      <c r="A21" s="0">
+        <v>88.19538670284939</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="0"/>
+      <c r="A22" s="0">
+        <v>88.059701492537314</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="0"/>
+      <c r="A23" s="0">
+        <v>87.788331071913163</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="0"/>
+      <c r="A24" s="0">
+        <v>87.720488466757118</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="0"/>
+      <c r="A25" s="0">
+        <v>87.652645861601087</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="0"/>
+      <c r="A26" s="0">
+        <v>87.109905020352784</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="0"/>
+      <c r="A27" s="0">
+        <v>88.263229308005435</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="0"/>
+      <c r="A28" s="0">
+        <v>88.331071913161466</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="0"/>
+      <c r="A29" s="0">
+        <v>87.924016282225239</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="0"/>
+      <c r="A30" s="0">
+        <v>87.856173677069208</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="0"/>
+      <c r="A31" s="0">
+        <v>88.059701492537314</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="0"/>
+      <c r="A32" s="0">
+        <v>88.19538670284939</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="0"/>
+      <c r="A33" s="0">
+        <v>88.12754409769336</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="0"/>
+      <c r="A34" s="0">
+        <v>88.331071913161466</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="0"/>
+      <c r="A35" s="0">
+        <v>87.584803256445042</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="0"/>
+      <c r="A36" s="0">
+        <v>87.516960651289011</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="0"/>
+      <c r="A37" s="0">
+        <v>87.24559023066486</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="0"/>
+      <c r="A38" s="0">
+        <v>87.584803256445042</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="0"/>
+      <c r="A39" s="0">
+        <v>87.652645861601087</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="0"/>
+      <c r="A40" s="0">
+        <v>87.788331071913163</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="0"/>
+      <c r="A41" s="0">
+        <v>87.991858887381284</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="0"/>
+      <c r="A42" s="0">
+        <v>88.263229308005435</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="0"/>
+      <c r="A43" s="0">
+        <v>88.19538670284939</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="0"/>
+      <c r="A44" s="0">
+        <v>88.059701492537314</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="0"/>
+      <c r="A45" s="0">
+        <v>87.924016282225239</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="0"/>
+      <c r="A46" s="0">
+        <v>87.991858887381284</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="0"/>
+      <c r="A47" s="0">
+        <v>87.516960651289011</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="0"/>
+      <c r="A48" s="0">
+        <v>86.024423337856177</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="0"/>
+      <c r="A49" s="0">
+        <v>88.19538670284939</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -96,247 +99,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>86.36363636363636</v>
+        <v>86.813186813186817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>87.991858887381284</v>
+        <v>88.196988196988201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>86.160108548168239</v>
+        <v>86.894586894586894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>88.331071913161466</v>
+        <v>88.563288563288566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>88.331071913161466</v>
+        <v>88.400488400488399</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>88.263229308005435</v>
+        <v>88.563288563288566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>87.516960651289011</v>
+        <v>87.667887667887669</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>85.549525101763919</v>
+        <v>86.609686609686605</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>86.567164179104466</v>
+        <v>86.97598697598697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>86.635006784260511</v>
+        <v>87.179487179487182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>86.092265943012208</v>
+        <v>86.609686609686605</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>86.499321573948436</v>
+        <v>86.935286935286939</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>88.12754409769336</v>
+        <v>88.319088319088323</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>86.770691994572587</v>
+        <v>86.731786731786727</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>88.12754409769336</v>
+        <v>88.359788359788354</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>87.516960651289011</v>
+        <v>88.11558811558811</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>88.19538670284939</v>
+        <v>88.522588522588521</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>87.449118046132966</v>
+        <v>88.074888074888079</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>88.19538670284939</v>
+        <v>88.400488400488399</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>88.19538670284939</v>
+        <v>88.400488400488399</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>88.059701492537314</v>
+        <v>88.359788359788354</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>87.788331071913163</v>
+        <v>87.260887260887259</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>87.720488466757118</v>
+        <v>87.830687830687822</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>87.652645861601087</v>
+        <v>87.952787952787943</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>87.109905020352784</v>
+        <v>87.667887667887669</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>88.263229308005435</v>
+        <v>88.644688644688642</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>88.331071913161466</v>
+        <v>88.685388685388688</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>87.924016282225239</v>
+        <v>87.912087912087912</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>87.856173677069208</v>
+        <v>88.278388278388277</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>88.059701492537314</v>
+        <v>88.481888481888475</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>88.19538670284939</v>
+        <v>88.481888481888475</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>88.12754409769336</v>
+        <v>88.400488400488399</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>88.331071913161466</v>
+        <v>88.644688644688642</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>87.584803256445042</v>
+        <v>87.993487993487989</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>87.516960651289011</v>
+        <v>87.871387871387867</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>87.24559023066486</v>
+        <v>87.301587301587304</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>87.584803256445042</v>
+        <v>88.196988196988201</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>87.652645861601087</v>
+        <v>87.789987789987791</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>87.788331071913163</v>
+        <v>88.319088319088323</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>87.991858887381284</v>
+        <v>88.400488400488399</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>88.263229308005435</v>
+        <v>88.603988603988597</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>88.19538670284939</v>
+        <v>88.603988603988597</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>88.059701492537314</v>
+        <v>88.319088319088323</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>87.924016282225239</v>
+        <v>88.237688237688232</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>87.991858887381284</v>
+        <v>88.278388278388277</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>87.516960651289011</v>
+        <v>87.627187627187624</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>86.024423337856177</v>
+        <v>87.016687016687015</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>88.19538670284939</v>
+        <v>88.603988603988597</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -99,7 +102,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -102,7 +117,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -117,7 +120,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -120,7 +123,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -123,7 +135,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -135,247 +162,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>86.813186813186817</v>
+        <v>96.839332748024589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>88.196988196988201</v>
+        <v>97.67339771729587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>86.894586894586894</v>
+        <v>97.67339771729587</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>88.563288563288566</v>
+        <v>97.9367866549605</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>88.400488400488399</v>
+        <v>97.980684811237921</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>88.563288563288566</v>
+        <v>98.024582967515357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>87.667887667887669</v>
+        <v>97.278314310798947</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>86.609686609686605</v>
+        <v>97.585601404740999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>86.97598697598697</v>
+        <v>98.419666374012294</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>87.179487179487182</v>
+        <v>98.331870061457423</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>86.609686609686605</v>
+        <v>96.312554872695344</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>86.935286935286939</v>
+        <v>98.639157155399474</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>88.319088319088323</v>
+        <v>96.663740122914845</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>86.731786731786727</v>
+        <v>97.585601404740999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>88.359788359788354</v>
+        <v>97.058823529411768</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>88.11558811558811</v>
+        <v>97.410008779631255</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>88.522588522588521</v>
+        <v>98.46356453028973</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>88.074888074888079</v>
+        <v>97.14661984196664</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>88.400488400488399</v>
+        <v>96.619841966637395</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>88.400488400488399</v>
+        <v>97.410008779631255</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>88.359788359788354</v>
+        <v>97.89288849868305</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>87.260887260887259</v>
+        <v>96.971027216856882</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>87.830687830687822</v>
+        <v>93.942054433713778</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>87.952787952787943</v>
+        <v>94.337137840210715</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>87.667887667887669</v>
+        <v>98.244073748902551</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>88.644688644688642</v>
+        <v>97.322212467076383</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>88.685388685388688</v>
+        <v>97.585601404740999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>87.912087912087912</v>
+        <v>97.497805092186127</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>88.278388278388277</v>
+        <v>97.805092186128178</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>88.481888481888475</v>
+        <v>98.770851624231781</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>88.481888481888475</v>
+        <v>98.46356453028973</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>88.400488400488399</v>
+        <v>98.507462686567166</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>88.644688644688642</v>
+        <v>98.419666374012294</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>87.993487993487989</v>
+        <v>98.112379280070243</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>87.871387871387867</v>
+        <v>97.717295873573306</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>87.301587301587304</v>
+        <v>75.021949078138718</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>88.196988196988201</v>
+        <v>97.14661984196664</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>87.789987789987791</v>
+        <v>98.024582967515357</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>88.319088319088323</v>
+        <v>96.312554872695344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>88.400488400488399</v>
+        <v>98.419666374012294</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>88.603988603988597</v>
+        <v>96.883230904302025</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>88.603988603988597</v>
+        <v>97.278314310798947</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>88.319088319088323</v>
+        <v>98.244073748902551</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>88.237688237688232</v>
+        <v>97.366110623353819</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>88.278388278388277</v>
+        <v>97.805092186128178</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>87.627187627187624</v>
+        <v>97.234416154521512</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>87.016687016687015</v>
+        <v>85.952589991220378</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>88.603988603988597</v>
+        <v>98.244073748902551</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
+  <si>
+    <t>HK_R_acc_LG</t>
+  </si>
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -162,247 +168,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>96.839332748024589</v>
+        <v>86.813186813186817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>97.67339771729587</v>
+        <v>88.196988196988201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>97.67339771729587</v>
+        <v>86.894586894586894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>97.9367866549605</v>
+        <v>88.563288563288566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>97.980684811237921</v>
+        <v>88.400488400488399</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>98.024582967515357</v>
+        <v>88.563288563288566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>97.278314310798947</v>
+        <v>87.667887667887669</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>97.585601404740999</v>
+        <v>86.609686609686605</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>98.419666374012294</v>
+        <v>86.97598697598697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>98.331870061457423</v>
+        <v>87.179487179487182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>96.312554872695344</v>
+        <v>86.609686609686605</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>98.639157155399474</v>
+        <v>86.935286935286939</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>96.663740122914845</v>
+        <v>88.319088319088323</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>97.585601404740999</v>
+        <v>86.731786731786727</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>97.058823529411768</v>
+        <v>88.359788359788354</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>97.410008779631255</v>
+        <v>88.11558811558811</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>98.46356453028973</v>
+        <v>88.522588522588521</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>97.14661984196664</v>
+        <v>88.074888074888079</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>96.619841966637395</v>
+        <v>88.400488400488399</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>97.410008779631255</v>
+        <v>88.400488400488399</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>97.89288849868305</v>
+        <v>88.359788359788354</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>96.971027216856882</v>
+        <v>87.260887260887259</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>93.942054433713778</v>
+        <v>87.830687830687822</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>94.337137840210715</v>
+        <v>87.952787952787943</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>98.244073748902551</v>
+        <v>87.667887667887669</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>97.322212467076383</v>
+        <v>88.644688644688642</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>97.585601404740999</v>
+        <v>88.685388685388688</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>97.497805092186127</v>
+        <v>87.912087912087912</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>97.805092186128178</v>
+        <v>88.278388278388277</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>98.770851624231781</v>
+        <v>88.481888481888475</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>98.46356453028973</v>
+        <v>88.481888481888475</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>98.507462686567166</v>
+        <v>88.400488400488399</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>98.419666374012294</v>
+        <v>88.644688644688642</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>98.112379280070243</v>
+        <v>87.993487993487989</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>97.717295873573306</v>
+        <v>87.871387871387867</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>75.021949078138718</v>
+        <v>87.301587301587304</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>97.14661984196664</v>
+        <v>88.196988196988201</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>98.024582967515357</v>
+        <v>87.789987789987791</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>96.312554872695344</v>
+        <v>88.319088319088323</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>98.419666374012294</v>
+        <v>88.400488400488399</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>96.883230904302025</v>
+        <v>88.603988603988597</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>97.278314310798947</v>
+        <v>88.603988603988597</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>98.244073748902551</v>
+        <v>88.319088319088323</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>97.366110623353819</v>
+        <v>88.237688237688232</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>97.805092186128178</v>
+        <v>88.278388278388277</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>97.234416154521512</v>
+        <v>87.627187627187624</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>85.952589991220378</v>
+        <v>87.016687016687015</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>98.244073748902551</v>
+        <v>88.603988603988597</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="35" uniqueCount="34">
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -159,11 +159,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.2578125" customWidth="true"/>
+    <col min="1" max="1" width="12" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -173,242 +176,242 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>86.813186813186817</v>
+        <v>96.839332748024589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>88.196988196988201</v>
+        <v>97.67339771729587</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>86.894586894586894</v>
+        <v>97.67339771729587</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>88.563288563288566</v>
+        <v>97.9367866549605</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>88.400488400488399</v>
+        <v>97.980684811237921</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>88.563288563288566</v>
+        <v>98.024582967515357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>87.667887667887669</v>
+        <v>97.278314310798947</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>86.609686609686605</v>
+        <v>97.585601404740999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>86.97598697598697</v>
+        <v>98.419666374012294</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>87.179487179487182</v>
+        <v>98.331870061457423</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>86.609686609686605</v>
+        <v>96.312554872695344</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>86.935286935286939</v>
+        <v>98.639157155399474</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>88.319088319088323</v>
+        <v>96.663740122914845</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>86.731786731786727</v>
+        <v>97.585601404740999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>88.359788359788354</v>
+        <v>97.058823529411768</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>88.11558811558811</v>
+        <v>97.410008779631255</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>88.522588522588521</v>
+        <v>98.46356453028973</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>88.074888074888079</v>
+        <v>97.14661984196664</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>88.400488400488399</v>
+        <v>96.619841966637395</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>88.400488400488399</v>
+        <v>97.410008779631255</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>88.359788359788354</v>
+        <v>97.89288849868305</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>87.260887260887259</v>
+        <v>96.971027216856882</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>87.830687830687822</v>
+        <v>93.942054433713778</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>87.952787952787943</v>
+        <v>94.337137840210715</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>87.667887667887669</v>
+        <v>98.244073748902551</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>88.644688644688642</v>
+        <v>97.322212467076383</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>88.685388685388688</v>
+        <v>97.585601404740999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>87.912087912087912</v>
+        <v>97.497805092186127</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>88.278388278388277</v>
+        <v>97.805092186128178</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>88.481888481888475</v>
+        <v>98.770851624231781</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>88.481888481888475</v>
+        <v>98.46356453028973</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>88.400488400488399</v>
+        <v>98.507462686567166</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>88.644688644688642</v>
+        <v>98.419666374012294</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>87.993487993487989</v>
+        <v>98.112379280070243</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>87.871387871387867</v>
+        <v>97.717295873573306</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>87.301587301587304</v>
+        <v>75.021949078138718</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>88.196988196988201</v>
+        <v>97.14661984196664</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>87.789987789987791</v>
+        <v>98.024582967515357</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>88.319088319088323</v>
+        <v>96.312554872695344</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>88.400488400488399</v>
+        <v>98.419666374012294</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>88.603988603988597</v>
+        <v>96.883230904302025</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>88.603988603988597</v>
+        <v>97.278314310798947</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>88.319088319088323</v>
+        <v>98.244073748902551</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>88.237688237688232</v>
+        <v>97.366110623353819</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>88.278388278388277</v>
+        <v>97.805092186128178</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>87.627187627187624</v>
+        <v>97.234416154521512</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>87.016687016687015</v>
+        <v>85.952589991220378</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>88.603988603988597</v>
+        <v>98.244073748902551</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="37" uniqueCount="34">
   <si>
     <t>HK_R_acc_LG</t>
   </si>
@@ -176,242 +176,242 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>96.839332748024589</v>
+        <v>86.813186813186817</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>97.67339771729587</v>
+        <v>88.196988196988201</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>97.67339771729587</v>
+        <v>86.894586894586894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>97.9367866549605</v>
+        <v>88.563288563288566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>97.980684811237921</v>
+        <v>88.400488400488399</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>98.024582967515357</v>
+        <v>88.563288563288566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>97.278314310798947</v>
+        <v>87.667887667887669</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>97.585601404740999</v>
+        <v>86.609686609686605</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>98.419666374012294</v>
+        <v>86.97598697598697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>98.331870061457423</v>
+        <v>87.179487179487182</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>96.312554872695344</v>
+        <v>86.609686609686605</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>98.639157155399474</v>
+        <v>86.935286935286939</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>96.663740122914845</v>
+        <v>88.319088319088323</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>97.585601404740999</v>
+        <v>86.731786731786727</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>97.058823529411768</v>
+        <v>88.359788359788354</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>97.410008779631255</v>
+        <v>88.11558811558811</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>98.46356453028973</v>
+        <v>88.522588522588521</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>97.14661984196664</v>
+        <v>88.074888074888079</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>96.619841966637395</v>
+        <v>88.400488400488399</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>97.410008779631255</v>
+        <v>88.400488400488399</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>97.89288849868305</v>
+        <v>88.359788359788354</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>96.971027216856882</v>
+        <v>87.260887260887259</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>93.942054433713778</v>
+        <v>87.830687830687822</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>94.337137840210715</v>
+        <v>87.952787952787943</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>98.244073748902551</v>
+        <v>87.667887667887669</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>97.322212467076383</v>
+        <v>88.644688644688642</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>97.585601404740999</v>
+        <v>88.685388685388688</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>97.497805092186127</v>
+        <v>87.912087912087912</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>97.805092186128178</v>
+        <v>88.278388278388277</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>98.770851624231781</v>
+        <v>88.481888481888475</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>98.46356453028973</v>
+        <v>88.481888481888475</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>98.507462686567166</v>
+        <v>88.400488400488399</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>98.419666374012294</v>
+        <v>88.644688644688642</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>98.112379280070243</v>
+        <v>87.993487993487989</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>97.717295873573306</v>
+        <v>87.871387871387867</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>75.021949078138718</v>
+        <v>87.301587301587304</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>97.14661984196664</v>
+        <v>88.196988196988201</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>98.024582967515357</v>
+        <v>87.789987789987791</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>96.312554872695344</v>
+        <v>88.319088319088323</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>98.419666374012294</v>
+        <v>88.400488400488399</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>96.883230904302025</v>
+        <v>88.603988603988597</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>97.278314310798947</v>
+        <v>88.603988603988597</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>98.244073748902551</v>
+        <v>88.319088319088323</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>97.366110623353819</v>
+        <v>88.237688237688232</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>97.805092186128178</v>
+        <v>88.278388278388277</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>97.234416154521512</v>
+        <v>87.627187627187624</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>85.952589991220378</v>
+        <v>87.016687016687015</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>98.244073748902551</v>
+        <v>88.603988603988597</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Local_gini/HK_R_acc_LG.xlsx
+++ b/Thresholding/Local_gini/HK_R_acc_LG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="39" uniqueCount="34">
   <si>
     <t>HK_R_acc_LG</t>
   </si>
